--- a/01_Input/00_CO Validation/Solomon Islands - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Solomon Islands - Energy Projects.xlsx
@@ -1,34 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27307"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wendy.wara\Documents\2023 RSD Folders\8. SOI CIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{7B22A26A-19AC-4DAA-864C-F52A33A2BFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5AE1CF7-E84C-4B9C-A2A5-8F40040F915B}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="13_ncr:1_{7B22A26A-19AC-4DAA-864C-F52A33A2BFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ADBE4EA-82D3-4627-BACA-7656EFCD3763}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId3"/>
+    <sheet name="Projects (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="Projects" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="1">Sheet1!$D$32</definedName>
-    <definedName name="_ftn2" localSheetId="1">Sheet1!$D$33</definedName>
-    <definedName name="_ftn3" localSheetId="1">Sheet1!$D$34</definedName>
-    <definedName name="_ftn4" localSheetId="1">Sheet1!$D$35</definedName>
-    <definedName name="_ftnref1" localSheetId="1">Sheet1!$G$16</definedName>
-    <definedName name="_ftnref2" localSheetId="1">Sheet1!$I$16</definedName>
-    <definedName name="_ftnref3" localSheetId="1">Sheet1!$G$18</definedName>
-    <definedName name="_ftnref4" localSheetId="1">Sheet1!$I$18</definedName>
+    <definedName name="_ftn1" localSheetId="2">Sheet1!$D$32</definedName>
+    <definedName name="_ftn2" localSheetId="2">Sheet1!$D$33</definedName>
+    <definedName name="_ftn3" localSheetId="2">Sheet1!$D$34</definedName>
+    <definedName name="_ftn4" localSheetId="2">Sheet1!$D$35</definedName>
+    <definedName name="_ftnref1" localSheetId="2">Sheet1!$G$16</definedName>
+    <definedName name="_ftnref2" localSheetId="2">Sheet1!$I$16</definedName>
+    <definedName name="_ftnref3" localSheetId="2">Sheet1!$G$18</definedName>
+    <definedName name="_ftnref4" localSheetId="2">Sheet1!$I$18</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="123">
   <si>
     <t>Project ID</t>
   </si>
@@ -74,19 +78,37 @@
     <t>Donors</t>
   </si>
   <si>
-    <t xml:space="preserve">Comments </t>
-  </si>
-  <si>
-    <t>Year 1</t>
-  </si>
-  <si>
-    <t>Year 2</t>
-  </si>
-  <si>
-    <t>Year 3</t>
-  </si>
-  <si>
-    <t>Year 4</t>
+    <t>Gender (% female)</t>
+  </si>
+  <si>
+    <t>VF or Non-VF</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>SEH Taxonomy</t>
+  </si>
+  <si>
+    <t>RISE Taxonomy</t>
+  </si>
+  <si>
+    <t>Flagship</t>
+  </si>
+  <si>
+    <t>Indirect Category</t>
+  </si>
+  <si>
+    <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
   </si>
   <si>
     <t>SPIRES (Rural Electrification)</t>
@@ -98,19 +120,22 @@
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Project Goal: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reduced annual growth rate of Green House Gas (GHG) emissions in the energy and energy end use sector of the country.</t>
-    </r>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>GEF</t>
+  </si>
+  <si>
+    <t>VF</t>
+  </si>
+  <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Some Sources</t>
+  </si>
+  <si>
+    <t>GHG Emissions Reduction</t>
   </si>
   <si>
     <r>
@@ -129,6 +154,57 @@
     </r>
   </si>
   <si>
+    <t>Number of beneficiaries</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of new jobs created due to enhanced electricity access in off-grid areas in the country </t>
+  </si>
+  <si>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>No. of trained national and local government personnel that can ably plan and evaluate energy access, sustainable energy and low carbon technology application projects.</t>
+  </si>
+  <si>
+    <t>Small Enterprises</t>
+  </si>
+  <si>
+    <t>No. of local firms that can capably provide technical, engineering and maintenance services for rural electrification and low carbon technology application projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments </t>
+  </si>
+  <si>
+    <t>Year 1</t>
+  </si>
+  <si>
+    <t>Year 2</t>
+  </si>
+  <si>
+    <t>Year 3</t>
+  </si>
+  <si>
+    <t>Year 4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project Goal: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reduced annual growth rate of Green House Gas (GHG) emissions in the energy and energy end use sector of the country.</t>
+    </r>
+  </si>
+  <si>
     <t>Note to CO: Although the details you provide are very thorough, it would be more helpful if you could provide less information such that it fits into our categorizations. For access to electricity we need this reported either as a number of beneficiaries or a number of MW. For services (health, water) these need to be distilled also into an estimate of nubmers of beneficiaries, unless this is a policy-level or strategic output that doesn't translate directly into beneficiaries, and then you can tag is as a Policy or Regulatory Framework. For the targets, we are primarily concerned with the total expected output of this project, so please provide only a single value for the target and baseline based on the beginning and end of the project.</t>
   </si>
   <si>
@@ -160,9 +236,6 @@
   </si>
   <si>
     <t>% electricity access in rural areas, %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. of new jobs created due to enhanced electricity access in off-grid areas in the country </t>
   </si>
   <si>
     <r>
@@ -331,9 +404,6 @@
   </si>
   <si>
     <t>100% Ministry of Mines and Energy with no external support</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
   </si>
   <si>
     <r>
@@ -406,12 +476,6 @@
     </r>
   </si>
   <si>
-    <t>No. of trained national and local government personnel that can ably plan and evaluate energy access, sustainable energy and low carbon technology application projects.</t>
-  </si>
-  <si>
-    <t>No. of local firms that can capably provide technical, engineering and maintenance services for rural electrification and low carbon technology application projects</t>
-  </si>
-  <si>
     <t>[1] Enhancement in carrying out energy service fee collection in community demo site.</t>
   </si>
   <si>
@@ -479,46 +543,58 @@
     <t xml:space="preserve">Percentage of women in community-based Renewable Energy Service Companies (RESCO) morally supported by village men to build their confidence in leadership </t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
-  </si>
-  <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
-  </si>
-  <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -527,7 +603,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -536,19 +615,10 @@
     <t>Support for the development of medium enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Small Enterprises</t>
-  </si>
-  <si>
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -557,19 +627,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
-  </si>
-  <si>
-    <t>Other</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Any other type of beneficiary (please specify justification in Notes)</t>
@@ -582,12 +652,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -672,8 +748,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,42 +777,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -750,32 +809,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -783,17 +816,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1001,64 +1023,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1067,49 +1165,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1121,113 +1312,101 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1235,7 +1414,103 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD966"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF9BC2E6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFBDD7EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1636,11 +1911,393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC04F94-F9A8-49FC-B047-3D156302B7DD}">
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="126" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="30.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="45.75">
+      <c r="A2" s="28">
+        <v>6089</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="29">
+        <v>2639726</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="47">
+        <v>0</v>
+      </c>
+      <c r="H2" s="48">
+        <f>((5*15)+(2*30)+(7*13)+(5*30)+(5*10)+(2*30)+(2*15)+(2*50)+26+30+(2*15)+75+25+(3*75)+(2*25)+(16*1.5)+(16*12.5)+2000)/1000</f>
+        <v>3.3010000000000002</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="39"/>
+      <c r="K2" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="49"/>
+      <c r="M2" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="49"/>
+      <c r="T2" s="58"/>
+    </row>
+    <row r="3" spans="1:20" ht="45.75">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="35">
+        <v>19147</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="49"/>
+      <c r="M3" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="58"/>
+    </row>
+    <row r="4" spans="1:20" ht="45.75">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="44"/>
+      <c r="H4" s="59">
+        <f>0.8*0.25*615804</f>
+        <v>123160.8</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="49"/>
+      <c r="M4" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="58"/>
+    </row>
+    <row r="5" spans="1:20" ht="52.5" customHeight="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="17">
+        <v>10</v>
+      </c>
+      <c r="H5" s="36">
+        <v>200</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="49"/>
+      <c r="M5" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="58"/>
+    </row>
+    <row r="6" spans="1:20" ht="45.75">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="37">
+        <v>4</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="49"/>
+      <c r="M6" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="58"/>
+    </row>
+    <row r="7" spans="1:20" ht="45.75">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="37">
+        <v>3</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="49"/>
+      <c r="M7" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="58"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="G9" s="14"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J3:J7">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+      <formula>"Missing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+      <formula>"New"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="CO Update">
+      <formula>NOT(ISERROR(SEARCH("CO Update",J3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J7">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>"Not Updated"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>"Assumed no projects"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"Review"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>"Updated"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"Missing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P7" xr:uid="{44170BD7-949B-4F5E-A591-2D6F21FD59F8}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O7" xr:uid="{BCFDB5E4-ACC3-4A0E-B883-1C5312DE5C70}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M7" xr:uid="{CEBB5F99-5834-4327-BEE4-0221F4A205E6}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N7" xr:uid="{77A6029E-0BCB-4200-BA0B-288B95290BC6}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L7" xr:uid="{7CA57EBB-B3BB-4CB0-AB3F-260C0B0FC95F}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S7" xr:uid="{6D089871-D030-4194-B15B-61E7C5915D77}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K7" xr:uid="{54B635D1-7EC0-4A23-9A5B-349138102771}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q7" xr:uid="{62F8D9DE-743D-424D-8D18-B5D0A06F7197}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R7" xr:uid="{FCB354B3-B571-4D2C-9AA7-62EA19D7B6D6}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{42A6F645-823C-4D07-8701-D13A558507DF}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1673,683 +2330,674 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="32" t="s">
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30.75">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
+      <c r="A3" s="69">
+        <v>6089</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="70">
+        <v>2639726</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:14" ht="184.5" customHeight="1">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>6376</v>
+      </c>
+      <c r="J4" s="18">
+        <v>12771</v>
+      </c>
+      <c r="K4" s="18">
+        <v>19147</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="39.6" customHeight="1">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="17">
+        <v>6.42</v>
+      </c>
+      <c r="H5" s="17">
+        <v>6.3</v>
+      </c>
+      <c r="I5" s="17">
+        <v>6.2</v>
+      </c>
+      <c r="J5" s="17">
+        <v>6.05</v>
+      </c>
+      <c r="K5" s="17">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+    </row>
+    <row r="7" spans="1:14" ht="65.45" customHeight="1">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <v>697.6</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1397.3</v>
+      </c>
+      <c r="K7" s="19">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="26.45" customHeight="1">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="52.5" customHeight="1">
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="17">
+        <v>10</v>
+      </c>
+      <c r="H9" s="17">
+        <v>20</v>
+      </c>
+      <c r="I9" s="17">
+        <v>60</v>
+      </c>
+      <c r="J9" s="17">
+        <v>100</v>
+      </c>
+      <c r="K9" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15">
+        <v>2</v>
+      </c>
+      <c r="J11" s="15">
+        <v>3</v>
+      </c>
+      <c r="K11" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15">
+        <v>1</v>
+      </c>
+      <c r="J12" s="15">
+        <v>2</v>
+      </c>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" ht="52.5" customHeight="1">
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="15">
+        <v>5</v>
+      </c>
+      <c r="H13" s="15">
+        <v>6</v>
+      </c>
+      <c r="I13" s="15">
+        <v>7</v>
+      </c>
+      <c r="J13" s="15">
+        <v>8</v>
+      </c>
+      <c r="K13" s="15">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30.75">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1">
-      <c r="A3" s="41">
-        <v>6089</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="42">
-        <v>2639726</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:14" ht="184.5" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="30" t="s">
+    <row r="14" spans="1:14">
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="63">
+        <v>0</v>
+      </c>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
+    </row>
+    <row r="18" spans="1:11" ht="65.45" customHeight="1">
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+    </row>
+    <row r="20" spans="1:11" ht="26.1">
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1</v>
+      </c>
+      <c r="I20" s="15">
+        <v>2</v>
+      </c>
+      <c r="J20" s="15">
+        <v>4</v>
+      </c>
+      <c r="K20" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="26.1">
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <v>2</v>
+      </c>
+      <c r="I21" s="15">
+        <v>4</v>
+      </c>
+      <c r="J21" s="15">
+        <v>5</v>
+      </c>
+      <c r="K21" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="104.1">
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="24">
+      <c r="F23" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" spans="1:11" ht="26.1">
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="15">
         <v>0</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H24" s="15">
+        <v>1</v>
+      </c>
+      <c r="I24" s="15">
+        <v>2</v>
+      </c>
+      <c r="J24" s="15">
+        <v>4</v>
+      </c>
+      <c r="K24" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="26.1">
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="15">
         <v>0</v>
       </c>
-      <c r="I4" s="25">
-        <v>6376</v>
-      </c>
-      <c r="J4" s="25">
-        <v>12771</v>
-      </c>
-      <c r="K4" s="25">
-        <v>19147</v>
-      </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="39.6" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="24">
-        <v>6.42</v>
-      </c>
-      <c r="H5" s="24">
-        <v>6.3</v>
-      </c>
-      <c r="I5" s="24">
-        <v>6.2</v>
-      </c>
-      <c r="J5" s="24">
-        <v>6.05</v>
-      </c>
-      <c r="K5" s="24">
-        <v>5.87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-    </row>
-    <row r="7" spans="1:14" ht="65.45" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="24">
+      <c r="H25" s="15">
+        <v>2</v>
+      </c>
+      <c r="I25" s="15">
+        <v>4</v>
+      </c>
+      <c r="J25" s="15">
+        <v>6</v>
+      </c>
+      <c r="K25" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="26.1">
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="15">
         <v>0</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H26" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="J26" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="K26" s="21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="69"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+    </row>
+    <row r="28" spans="1:11" ht="26.1">
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="15">
         <v>0</v>
       </c>
-      <c r="I7" s="24">
-        <v>697.6</v>
-      </c>
-      <c r="J7" s="26">
-        <v>1397.3</v>
-      </c>
-      <c r="K7" s="26">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="26.45" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="H8" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="I8" s="27">
-        <v>0.15</v>
-      </c>
-      <c r="J8" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="K8" s="27">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="52.5" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="24">
-        <v>10</v>
-      </c>
-      <c r="H9" s="24">
-        <v>20</v>
-      </c>
-      <c r="I9" s="24">
-        <v>60</v>
-      </c>
-      <c r="J9" s="24">
-        <v>100</v>
-      </c>
-      <c r="K9" s="24">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="22">
+      <c r="H28" s="15">
         <v>0</v>
       </c>
-      <c r="H11" s="22">
+      <c r="I28" s="15">
+        <v>2</v>
+      </c>
+      <c r="J28" s="15">
+        <v>3</v>
+      </c>
+      <c r="K28" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="26.1">
+      <c r="A29" s="69"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="15">
         <v>1</v>
       </c>
-      <c r="I11" s="22">
+      <c r="H29" s="15">
+        <v>1</v>
+      </c>
+      <c r="I29" s="15">
+        <v>1</v>
+      </c>
+      <c r="J29" s="15">
         <v>2</v>
       </c>
-      <c r="J11" s="22">
+      <c r="K29" s="15">
         <v>3</v>
       </c>
-      <c r="K11" s="22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="22">
-        <v>0</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22">
-        <v>1</v>
-      </c>
-      <c r="J12" s="22">
-        <v>2</v>
-      </c>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="1:14" ht="52.5" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="22">
-        <v>5</v>
-      </c>
-      <c r="H13" s="22">
-        <v>6</v>
-      </c>
-      <c r="I13" s="22">
-        <v>7</v>
-      </c>
-      <c r="J13" s="22">
-        <v>8</v>
-      </c>
-      <c r="K13" s="22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="48">
-        <v>0</v>
-      </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
-    </row>
-    <row r="18" spans="1:11" ht="65.45" customHeight="1">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="22">
-        <v>0</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-    </row>
-    <row r="20" spans="1:11" ht="26.1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="22">
-        <v>0</v>
-      </c>
-      <c r="H20" s="22">
-        <v>1</v>
-      </c>
-      <c r="I20" s="22">
-        <v>2</v>
-      </c>
-      <c r="J20" s="22">
-        <v>4</v>
-      </c>
-      <c r="K20" s="22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="26.1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="22">
-        <v>0</v>
-      </c>
-      <c r="H21" s="22">
-        <v>2</v>
-      </c>
-      <c r="I21" s="22">
-        <v>4</v>
-      </c>
-      <c r="J21" s="22">
-        <v>5</v>
-      </c>
-      <c r="K21" s="22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="104.1">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="28">
-        <v>0.75</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="24" spans="1:11" ht="26.1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="22">
-        <v>0</v>
-      </c>
-      <c r="H24" s="22">
-        <v>1</v>
-      </c>
-      <c r="I24" s="22">
-        <v>2</v>
-      </c>
-      <c r="J24" s="22">
-        <v>4</v>
-      </c>
-      <c r="K24" s="22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="26.1">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="22">
-        <v>0</v>
-      </c>
-      <c r="H25" s="22">
-        <v>2</v>
-      </c>
-      <c r="I25" s="22">
-        <v>4</v>
-      </c>
-      <c r="J25" s="22">
-        <v>6</v>
-      </c>
-      <c r="K25" s="22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="26.1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="22">
-        <v>0</v>
-      </c>
-      <c r="H26" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="I26" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="J26" s="28">
-        <v>0.35</v>
-      </c>
-      <c r="K26" s="28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-    </row>
-    <row r="28" spans="1:11" ht="26.1">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="22">
-        <v>0</v>
-      </c>
-      <c r="H28" s="22">
-        <v>0</v>
-      </c>
-      <c r="I28" s="22">
-        <v>2</v>
-      </c>
-      <c r="J28" s="22">
-        <v>3</v>
-      </c>
-      <c r="K28" s="22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="26.1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="22">
-        <v>1</v>
-      </c>
-      <c r="H29" s="22">
-        <v>1</v>
-      </c>
-      <c r="I29" s="22">
-        <v>1</v>
-      </c>
-      <c r="J29" s="22">
-        <v>2</v>
-      </c>
-      <c r="K29" s="22">
-        <v>3</v>
-      </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="G30" s="21"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:11" ht="26.25" customHeight="1">
-      <c r="F31" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="21"/>
+      <c r="F31" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="F32" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="21"/>
+      <c r="F32" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="14"/>
     </row>
     <row r="33" spans="6:7">
-      <c r="F33" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="21"/>
+      <c r="F33" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" spans="6:7">
-      <c r="F34" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="21"/>
+      <c r="F34" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="6:7">
-      <c r="G35" s="21"/>
+      <c r="G35" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="F6:K6"/>
@@ -2366,6 +3014,15 @@
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E29"/>
     <mergeCell ref="F15:K15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
   </mergeCells>
   <conditionalFormatting sqref="M4">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
@@ -2405,7 +3062,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
@@ -2415,504 +3072,504 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E139CA92-2C16-454F-A4E4-09819066132A}">
   <dimension ref="D1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="4" max="4" width="120.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:9" ht="15" thickBot="1">
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="4:9" ht="15" thickBot="1">
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="4:9" ht="27.6" customHeight="1" thickBot="1">
+      <c r="D3" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+    </row>
+    <row r="4" spans="4:9" ht="15.6" thickBot="1">
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>6376</v>
+      </c>
+      <c r="H4" s="7">
+        <v>12771</v>
+      </c>
+      <c r="I4" s="7">
+        <v>19147</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" ht="15" thickBot="1">
+      <c r="D5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6.42</v>
+      </c>
+      <c r="F5" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="G5" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>6.05</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" ht="26.1" customHeight="1" thickBot="1">
+      <c r="D6" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="85"/>
+    </row>
+    <row r="7" spans="4:9" ht="15" thickBot="1">
+      <c r="D7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>697.6</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1397.3</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" ht="15" thickBot="1">
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" ht="15" thickBot="1">
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="4:9" ht="27.6" customHeight="1" thickBot="1">
-      <c r="D3" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-    </row>
-    <row r="4" spans="4:9" ht="15.6" thickBot="1">
-      <c r="D4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="F9" s="6">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6">
+        <v>60</v>
+      </c>
+      <c r="H9" s="6">
+        <v>100</v>
+      </c>
+      <c r="I9" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" ht="15" thickBot="1">
+      <c r="D10" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79"/>
+    </row>
+    <row r="11" spans="4:9" ht="15" thickBot="1">
+      <c r="D11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" ht="15" thickBot="1">
+      <c r="D12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="14">
-        <v>6376</v>
-      </c>
-      <c r="H4" s="14">
-        <v>12771</v>
-      </c>
-      <c r="I4" s="14">
-        <v>19147</v>
-      </c>
-    </row>
-    <row r="5" spans="4:9" ht="15" thickBot="1">
-      <c r="D5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="13">
-        <v>6.42</v>
-      </c>
-      <c r="F5" s="13">
-        <v>6.3</v>
-      </c>
-      <c r="G5" s="13">
-        <v>6.2</v>
-      </c>
-      <c r="H5" s="13">
-        <v>6.05</v>
-      </c>
-      <c r="I5" s="13">
-        <v>5.87</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" ht="26.1" customHeight="1" thickBot="1">
-      <c r="D6" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="60"/>
-    </row>
-    <row r="7" spans="4:9" ht="15" thickBot="1">
-      <c r="D7" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="4:9" ht="15" thickBot="1">
+      <c r="D13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5">
+        <v>6</v>
+      </c>
+      <c r="G13" s="5">
+        <v>7</v>
+      </c>
+      <c r="H13" s="5">
+        <v>8</v>
+      </c>
+      <c r="I13" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9">
+      <c r="D14" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="88"/>
+    </row>
+    <row r="15" spans="4:9" ht="15" thickBot="1">
+      <c r="D15" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="4:9">
+      <c r="D16" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="94">
         <v>0</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F16" s="96"/>
+      <c r="G16" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="96"/>
+      <c r="I16" s="75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="15" thickBot="1">
+      <c r="D17" s="93"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="76"/>
+    </row>
+    <row r="18" spans="4:9" ht="15" thickBot="1">
+      <c r="D18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="13">
-        <v>697.6</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1397.3</v>
-      </c>
-      <c r="I7" s="15">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" ht="15" thickBot="1">
-      <c r="D8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="F8" s="17">
+      <c r="F18" s="5"/>
+      <c r="G18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" ht="40.5" customHeight="1" thickBot="1">
+      <c r="D19" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="79"/>
+    </row>
+    <row r="20" spans="4:9" ht="26.45" thickBot="1">
+      <c r="D20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>4</v>
+      </c>
+      <c r="I20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" ht="26.45" thickBot="1">
+      <c r="D21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5">
+        <v>4</v>
+      </c>
+      <c r="H21" s="5">
+        <v>5</v>
+      </c>
+      <c r="I21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" ht="67.5">
+      <c r="D22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" ht="40.5" customHeight="1" thickBot="1">
+      <c r="D23" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="79"/>
+    </row>
+    <row r="24" spans="4:9" ht="26.45" thickBot="1">
+      <c r="D24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5">
+        <v>4</v>
+      </c>
+      <c r="I24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" ht="26.45" thickBot="1">
+      <c r="D25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5">
+        <v>4</v>
+      </c>
+      <c r="H25" s="5">
+        <v>6</v>
+      </c>
+      <c r="I25" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" ht="26.45" thickBot="1">
+      <c r="D26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
         <v>0.1</v>
       </c>
-      <c r="G8" s="17">
-        <v>0.15</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="I8" s="17">
+      <c r="G26" s="9">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="9" spans="4:9" ht="15" thickBot="1">
-      <c r="D9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="13">
-        <v>10</v>
-      </c>
-      <c r="F9" s="13">
-        <v>20</v>
-      </c>
-      <c r="G9" s="13">
-        <v>60</v>
-      </c>
-      <c r="H9" s="13">
-        <v>100</v>
-      </c>
-      <c r="I9" s="13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" ht="15" thickBot="1">
-      <c r="D10" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-    </row>
-    <row r="11" spans="4:9" ht="15" thickBot="1">
-      <c r="D11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="H26" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" ht="15" thickBot="1">
+      <c r="D27" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="79"/>
+    </row>
+    <row r="28" spans="4:9" ht="26.45" thickBot="1">
+      <c r="D28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="5">
         <v>0</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2</v>
+      </c>
+      <c r="H28" s="5">
+        <v>3</v>
+      </c>
+      <c r="I28" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" ht="26.45" thickBot="1">
+      <c r="D29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="12">
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
         <v>2</v>
       </c>
-      <c r="H11" s="12">
+      <c r="I29" s="5">
         <v>3</v>
       </c>
-      <c r="I11" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" ht="15" thickBot="1">
-      <c r="D12" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="12">
-        <v>2</v>
-      </c>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="4:9" ht="15" thickBot="1">
-      <c r="D13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="12">
-        <v>5</v>
-      </c>
-      <c r="F13" s="12">
-        <v>6</v>
-      </c>
-      <c r="G13" s="12">
-        <v>7</v>
-      </c>
-      <c r="H13" s="12">
-        <v>8</v>
-      </c>
-      <c r="I13" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9">
-      <c r="D14" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
-    </row>
-    <row r="15" spans="4:9" ht="15" thickBot="1">
-      <c r="D15" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
-    </row>
-    <row r="16" spans="4:9">
-      <c r="D16" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="69">
-        <v>0</v>
-      </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" ht="15" thickBot="1">
-      <c r="D17" s="68"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="51"/>
-    </row>
-    <row r="18" spans="4:9" ht="15" thickBot="1">
-      <c r="D18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" ht="40.5" customHeight="1" thickBot="1">
-      <c r="D19" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
-    </row>
-    <row r="20" spans="4:9" ht="26.45" thickBot="1">
-      <c r="D20" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
-      <c r="F20" s="12">
-        <v>1</v>
-      </c>
-      <c r="G20" s="12">
-        <v>2</v>
-      </c>
-      <c r="H20" s="12">
-        <v>4</v>
-      </c>
-      <c r="I20" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" ht="26.45" thickBot="1">
-      <c r="D21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12">
-        <v>2</v>
-      </c>
-      <c r="G21" s="12">
-        <v>4</v>
-      </c>
-      <c r="H21" s="12">
-        <v>5</v>
-      </c>
-      <c r="I21" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" ht="67.5">
-      <c r="D22" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" ht="40.5" customHeight="1" thickBot="1">
-      <c r="D23" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
-    </row>
-    <row r="24" spans="4:9" ht="26.45" thickBot="1">
-      <c r="D24" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="12">
-        <v>0</v>
-      </c>
-      <c r="F24" s="12">
-        <v>1</v>
-      </c>
-      <c r="G24" s="12">
-        <v>2</v>
-      </c>
-      <c r="H24" s="12">
-        <v>4</v>
-      </c>
-      <c r="I24" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" ht="26.45" thickBot="1">
-      <c r="D25" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
-      <c r="F25" s="12">
-        <v>2</v>
-      </c>
-      <c r="G25" s="12">
-        <v>4</v>
-      </c>
-      <c r="H25" s="12">
-        <v>6</v>
-      </c>
-      <c r="I25" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9" ht="26.45" thickBot="1">
-      <c r="D26" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="F26" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="G26" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="H26" s="16">
-        <v>0.35</v>
-      </c>
-      <c r="I26" s="16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="4:9" ht="15" thickBot="1">
-      <c r="D27" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
-    </row>
-    <row r="28" spans="4:9" ht="26.45" thickBot="1">
-      <c r="D28" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="12">
-        <v>0</v>
-      </c>
-      <c r="F28" s="12">
-        <v>0</v>
-      </c>
-      <c r="G28" s="12">
-        <v>2</v>
-      </c>
-      <c r="H28" s="12">
-        <v>3</v>
-      </c>
-      <c r="I28" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="4:9" ht="26.45" thickBot="1">
-      <c r="D29" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="12">
-        <v>1</v>
-      </c>
-      <c r="F29" s="12">
-        <v>1</v>
-      </c>
-      <c r="G29" s="12">
-        <v>1</v>
-      </c>
-      <c r="H29" s="12">
-        <v>2</v>
-      </c>
-      <c r="I29" s="12">
-        <v>3</v>
-      </c>
     </row>
     <row r="32" spans="4:9">
-      <c r="D32" s="20" t="s">
-        <v>55</v>
+      <c r="D32" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="20" t="s">
-        <v>56</v>
+      <c r="D33" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="4:4">
-      <c r="D34" s="20" t="s">
-        <v>57</v>
+      <c r="D34" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="20" t="s">
-        <v>58</v>
+      <c r="D35" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2947,190 +3604,222 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="52.7109375" customWidth="1"/>
-    <col min="3" max="3" width="95.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" customWidth="1"/>
+    <col min="2" max="2" width="95.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="75"/>
-      <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="75"/>
-      <c r="B4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="76"/>
-      <c r="B6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="76"/>
-      <c r="B7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="76"/>
-      <c r="B8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="76"/>
-      <c r="B9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="77"/>
-      <c r="B11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B1" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30.75">
+      <c r="A2" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="78" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="6" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B4" s="51" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="78"/>
-      <c r="B13" s="7" t="s">
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B5" s="51" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="8" t="s">
+    <row r="6" spans="1:2" ht="60.75">
+      <c r="A6" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B6" s="51" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
+    <row r="7" spans="1:2" ht="30.75">
+      <c r="A7" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="30.75">
+      <c r="A8" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="51" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
+    <row r="9" spans="1:2" ht="30.75">
+      <c r="A9" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B9" s="51" t="s">
         <v>100</v>
       </c>
     </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30.75">
+      <c r="A12" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="101" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="101" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45.75">
+      <c r="A19" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="101" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="101" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30.75">
+      <c r="A21" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="102" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="101" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -3379,28 +4068,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEFF3D39-54DD-416F-A50A-C635A1FF38F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739B117-156A-40FE-B2D5-DD22F5B6A59B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3408,5 +4077,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8739B117-156A-40FE-B2D5-DD22F5B6A59B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEFF3D39-54DD-416F-A50A-C635A1FF38F2}"/>
 </file>